--- a/result/ТИАН.xlsx
+++ b/result/ТИАН.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>844</v>
+        <v>510</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>820</v>
+        <v>906</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>543</v>
+        <v>919</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>564</v>
+        <v>791</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>650</v>
+        <v>910</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>751</v>
+        <v>865</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>838</v>
+        <v>509</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>573</v>
+        <v>944</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>942</v>
+        <v>546</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>843</v>
+        <v>780</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>543</v>
+        <v>825</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>515</v>
+        <v>913</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>965</v>
+        <v>539</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>550</v>
+        <v>782</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>811</v>
+        <v>757</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>689</v>
+        <v>618</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>508</v>
+        <v>802</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>817</v>
+        <v>658</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>987</v>
+        <v>696</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>562</v>
+        <v>938</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>716</v>
+        <v>788</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>714</v>
+        <v>567</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>775</v>
+        <v>663</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>558</v>
+        <v>759</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>775</v>
+        <v>683</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>508</v>
+        <v>683</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>566</v>
+        <v>861</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>502</v>
+        <v>898</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>579</v>
+        <v>922</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>554</v>
+        <v>671</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>522</v>
+        <v>966</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>831</v>
+        <v>559</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>819</v>
+        <v>927</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>759</v>
+        <v>641</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>582</v>
+        <v>719</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>961</v>
+        <v>739</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>933</v>
+        <v>593</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>996</v>
+        <v>506</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>983</v>
+        <v>624</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>792</v>
+        <v>688</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>547</v>
+        <v>828</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>939</v>
+        <v>577</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>575</v>
+        <v>754</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>956</v>
+        <v>792</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>847</v>
+        <v>535</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>790</v>
+        <v>601</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>908</v>
+        <v>684</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>618</v>
+        <v>514</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>890</v>
+        <v>738</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>514</v>
+        <v>717</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>927</v>
+        <v>968</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>967</v>
+        <v>773</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>512</v>
+        <v>970</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>794</v>
+        <v>973</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>873</v>
+        <v>945</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>726</v>
+        <v>853</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>678</v>
+        <v>869</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>684</v>
+        <v>824</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>970</v>
+        <v>661</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>820</v>
+        <v>870</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>892</v>
+        <v>653</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>649</v>
+        <v>938</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>547</v>
+        <v>837</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>780</v>
+        <v>625</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>597</v>
+        <v>924</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>867</v>
+        <v>673</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>637</v>
+        <v>928</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>654</v>
+        <v>516</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>721</v>
+        <v>629</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>606</v>
+        <v>702</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>544</v>
+        <v>831</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>801</v>
+        <v>860</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>912</v>
+        <v>683</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>500</v>
+        <v>981</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>641</v>
+        <v>556</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>525</v>
+        <v>643</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>733</v>
+        <v>624</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>511</v>
+        <v>883</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>946</v>
+        <v>994</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>547</v>
+        <v>803</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>607</v>
+        <v>955</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>592</v>
+        <v>777</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>629</v>
+        <v>523</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>

--- a/result/ТИАН.xlsx
+++ b/result/ТИАН.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
   <si>
     <t>Название склада</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ТИАН AMBR КОТ ВЗР СТДЗ Утка Инд 5кг 1шт</t>
-  </si>
-  <si>
-    <t>ТИАН AMBR КОТ ВЗР СТДЗ Утка Инд 5кг 2шт</t>
   </si>
   <si>
     <t>ТИАН AMBR КОТ ВЗР СТДЗ Форель Крол 1.5кг 1шт</t>
@@ -854,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,13 +885,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>940</v>
+        <v>673</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <v>36.52</v>
@@ -908,13 +905,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>950</v>
+        <v>859</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>36.52</v>
@@ -928,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4">
-        <v>719</v>
+        <v>964</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>36.52</v>
@@ -948,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <v>100.9</v>
@@ -968,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>735</v>
+        <v>537</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>100.9</v>
@@ -988,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>880</v>
+        <v>615</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>34.52</v>
@@ -1008,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8">
-        <v>704</v>
+        <v>568</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>34.52</v>
@@ -1028,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9">
-        <v>625</v>
+        <v>835</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <v>34.52</v>
@@ -1048,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10">
-        <v>936</v>
+        <v>676</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>94.27</v>
@@ -1068,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11">
-        <v>765</v>
+        <v>864</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>94.27</v>
@@ -1088,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12">
         <v>41.16</v>
@@ -1108,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13">
         <v>41.16</v>
@@ -1128,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>504</v>
+        <v>583</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14">
         <v>41.16</v>
@@ -1148,13 +1145,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>737</v>
+        <v>859</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15">
         <v>109.54</v>
@@ -1171,13 +1168,10 @@
         <v>119</v>
       </c>
       <c r="D16">
-        <v>909</v>
+        <v>950</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16">
-        <v>109.54</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1188,13 +1182,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1205,13 +1199,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1225,10 +1219,13 @@
         <v>120</v>
       </c>
       <c r="D19">
-        <v>837</v>
+        <v>555</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F19">
+        <v>132.11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1239,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <v>774</v>
+        <v>874</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20">
         <v>132.11</v>
@@ -1262,13 +1259,13 @@
         <v>121</v>
       </c>
       <c r="D21">
-        <v>993</v>
+        <v>676</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21">
-        <v>132.11</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1279,13 +1276,13 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22">
-        <v>900</v>
+        <v>565</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22">
         <v>39.17</v>
@@ -1299,13 +1296,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23">
-        <v>578</v>
+        <v>747</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23">
         <v>39.17</v>
@@ -1322,13 +1319,13 @@
         <v>122</v>
       </c>
       <c r="D24">
-        <v>909</v>
+        <v>663</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24">
-        <v>39.17</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1339,13 +1336,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25">
-        <v>929</v>
+        <v>891</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25">
         <v>110.2</v>
@@ -1362,13 +1359,13 @@
         <v>123</v>
       </c>
       <c r="D26">
-        <v>627</v>
+        <v>535</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26">
-        <v>110.2</v>
+        <v>180.58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1382,13 +1379,13 @@
         <v>124</v>
       </c>
       <c r="D27">
-        <v>643</v>
+        <v>823</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27">
-        <v>180.58</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1399,13 +1396,13 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28">
-        <v>718</v>
+        <v>623</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28">
         <v>39.83</v>
@@ -1419,13 +1416,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29">
-        <v>541</v>
+        <v>814</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29">
         <v>39.83</v>
@@ -1442,13 +1439,13 @@
         <v>125</v>
       </c>
       <c r="D30">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30">
-        <v>39.83</v>
+        <v>181.22</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1462,13 +1459,13 @@
         <v>126</v>
       </c>
       <c r="D31">
-        <v>692</v>
+        <v>867</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31">
-        <v>181.22</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1479,13 +1476,13 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>909</v>
+        <v>984</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F32">
         <v>40.5</v>
@@ -1499,13 +1496,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33">
-        <v>559</v>
+        <v>917</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33">
         <v>40.5</v>
@@ -1522,13 +1519,13 @@
         <v>127</v>
       </c>
       <c r="D34">
-        <v>617</v>
+        <v>730</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34">
-        <v>40.5</v>
+        <v>174.58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1542,13 +1539,13 @@
         <v>128</v>
       </c>
       <c r="D35">
-        <v>528</v>
+        <v>988</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F35">
-        <v>174.58</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1559,13 +1556,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36">
-        <v>764</v>
+        <v>647</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36">
         <v>39.17</v>
@@ -1579,13 +1576,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37">
-        <v>804</v>
+        <v>616</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37">
         <v>39.17</v>
@@ -1602,13 +1599,13 @@
         <v>129</v>
       </c>
       <c r="D38">
-        <v>500</v>
+        <v>718</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38">
-        <v>39.17</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1622,13 +1619,13 @@
         <v>130</v>
       </c>
       <c r="D39">
-        <v>772</v>
+        <v>530</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F39">
-        <v>174.6</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1639,13 +1636,13 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>839</v>
+        <v>705</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40">
         <v>39.17</v>
@@ -1659,13 +1656,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41">
-        <v>877</v>
+        <v>696</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41">
         <v>39.17</v>
@@ -1682,13 +1679,13 @@
         <v>131</v>
       </c>
       <c r="D42">
-        <v>703</v>
+        <v>585</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F42">
-        <v>39.17</v>
+        <v>181.24</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1702,13 +1699,13 @@
         <v>132</v>
       </c>
       <c r="D43">
-        <v>871</v>
+        <v>819</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F43">
-        <v>181.24</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1719,13 +1716,13 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44">
         <v>40.5</v>
@@ -1739,13 +1736,13 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45">
-        <v>836</v>
+        <v>737</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45">
         <v>40.5</v>
@@ -1762,13 +1759,13 @@
         <v>133</v>
       </c>
       <c r="D46">
-        <v>660</v>
+        <v>589</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46">
-        <v>40.5</v>
+        <v>180.58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1782,13 +1779,13 @@
         <v>134</v>
       </c>
       <c r="D47">
-        <v>716</v>
+        <v>957</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F47">
-        <v>180.58</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1799,13 +1796,13 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48">
-        <v>627</v>
+        <v>718</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48">
         <v>39.83</v>
@@ -1819,13 +1816,13 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49">
-        <v>919</v>
+        <v>600</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F49">
         <v>39.83</v>
@@ -1842,13 +1839,13 @@
         <v>135</v>
       </c>
       <c r="D50">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50">
-        <v>39.83</v>
+        <v>38.38</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1859,13 +1856,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51">
-        <v>827</v>
+        <v>605</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>38.38</v>
@@ -1879,13 +1876,13 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52">
-        <v>864</v>
+        <v>958</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F52">
         <v>38.38</v>
@@ -1902,13 +1899,13 @@
         <v>136</v>
       </c>
       <c r="D53">
-        <v>854</v>
+        <v>928</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F53">
-        <v>38.38</v>
+        <v>105.83</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1919,13 +1916,13 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54">
-        <v>798</v>
+        <v>636</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54">
         <v>105.83</v>
@@ -1942,13 +1939,13 @@
         <v>137</v>
       </c>
       <c r="D55">
-        <v>857</v>
+        <v>903</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55">
-        <v>105.83</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1959,13 +1956,13 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D56">
-        <v>832</v>
+        <v>510</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56">
         <v>43.94</v>
@@ -1979,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57">
-        <v>826</v>
+        <v>694</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57">
         <v>43.94</v>
@@ -2002,13 +1999,13 @@
         <v>138</v>
       </c>
       <c r="D58">
-        <v>933</v>
+        <v>821</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58">
-        <v>43.94</v>
+        <v>123.78</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2019,13 +2016,13 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59">
-        <v>968</v>
+        <v>629</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F59">
         <v>123.78</v>
@@ -2042,13 +2039,13 @@
         <v>139</v>
       </c>
       <c r="D60">
-        <v>778</v>
+        <v>913</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F60">
-        <v>123.78</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2059,13 +2056,13 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61">
-        <v>905</v>
+        <v>645</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F61">
         <v>44.56</v>
@@ -2079,13 +2076,13 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62">
-        <v>881</v>
+        <v>662</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F62">
         <v>44.56</v>
@@ -2102,13 +2099,13 @@
         <v>140</v>
       </c>
       <c r="D63">
-        <v>769</v>
+        <v>820</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63">
-        <v>44.56</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2119,13 +2116,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64">
-        <v>815</v>
+        <v>979</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F64">
         <v>126.88</v>
@@ -2142,13 +2139,13 @@
         <v>141</v>
       </c>
       <c r="D65">
-        <v>891</v>
+        <v>845</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65">
-        <v>126.88</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2159,13 +2156,13 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66">
-        <v>616</v>
+        <v>971</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F66">
         <v>42.08</v>
@@ -2179,13 +2176,13 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67">
-        <v>942</v>
+        <v>588</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67">
         <v>42.08</v>
@@ -2202,13 +2199,13 @@
         <v>142</v>
       </c>
       <c r="D68">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68">
-        <v>42.08</v>
+        <v>115.73</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2219,13 +2216,13 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F69">
         <v>115.73</v>
@@ -2242,13 +2239,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70">
-        <v>115.73</v>
+        <v>45.79</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2259,13 +2256,13 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71">
-        <v>631</v>
+        <v>799</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F71">
         <v>45.79</v>
@@ -2279,13 +2276,13 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72">
-        <v>514</v>
+        <v>668</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72">
         <v>45.79</v>
@@ -2302,13 +2299,13 @@
         <v>144</v>
       </c>
       <c r="D73">
-        <v>597</v>
+        <v>773</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F73">
-        <v>45.79</v>
+        <v>131.21</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2319,13 +2316,13 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74">
-        <v>513</v>
+        <v>777</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F74">
         <v>131.21</v>
@@ -2342,13 +2339,13 @@
         <v>145</v>
       </c>
       <c r="D75">
-        <v>810</v>
+        <v>507</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75">
-        <v>131.21</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2359,13 +2356,13 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76">
-        <v>605</v>
+        <v>722</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76">
         <v>39.83</v>
@@ -2379,13 +2376,13 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77">
-        <v>941</v>
+        <v>902</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77">
         <v>39.83</v>
@@ -2402,13 +2399,13 @@
         <v>146</v>
       </c>
       <c r="D78">
-        <v>971</v>
+        <v>996</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F78">
-        <v>39.83</v>
+        <v>111.53</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2419,13 +2416,13 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79">
-        <v>540</v>
+        <v>849</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F79">
         <v>111.53</v>
@@ -2442,13 +2439,13 @@
         <v>147</v>
       </c>
       <c r="D80">
-        <v>704</v>
+        <v>784</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F80">
-        <v>111.53</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2459,13 +2456,13 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81">
-        <v>590</v>
+        <v>722</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F81">
         <v>39.17</v>
@@ -2479,13 +2476,13 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D82">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F82">
         <v>39.17</v>
@@ -2502,13 +2499,13 @@
         <v>148</v>
       </c>
       <c r="D83">
-        <v>662</v>
+        <v>938</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F83">
-        <v>39.17</v>
+        <v>92.94</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2519,13 +2516,13 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D84">
-        <v>892</v>
+        <v>503</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84">
         <v>92.94</v>
@@ -2542,13 +2539,13 @@
         <v>149</v>
       </c>
       <c r="D85">
-        <v>821</v>
+        <v>581</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F85">
-        <v>92.94</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2559,13 +2556,13 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D86">
-        <v>526</v>
+        <v>960</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F86">
         <v>39.83</v>
@@ -2579,13 +2576,13 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D87">
-        <v>866</v>
+        <v>940</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F87">
         <v>39.83</v>
@@ -2602,13 +2599,13 @@
         <v>150</v>
       </c>
       <c r="D88">
-        <v>624</v>
+        <v>899</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F88">
-        <v>39.83</v>
+        <v>96.26000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2619,13 +2616,13 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D89">
-        <v>657</v>
+        <v>515</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F89">
         <v>96.26000000000001</v>
@@ -2642,13 +2639,13 @@
         <v>151</v>
       </c>
       <c r="D90">
-        <v>818</v>
+        <v>692</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F90">
-        <v>96.26000000000001</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2659,13 +2656,13 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D91">
-        <v>795</v>
+        <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F91">
         <v>45.18</v>
@@ -2679,13 +2676,13 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D92">
-        <v>728</v>
+        <v>857</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F92">
         <v>45.18</v>
@@ -2702,13 +2699,13 @@
         <v>152</v>
       </c>
       <c r="D93">
-        <v>910</v>
+        <v>662</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F93">
-        <v>45.18</v>
+        <v>128.72</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2719,13 +2716,13 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D94">
-        <v>679</v>
+        <v>984</v>
       </c>
       <c r="E94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F94">
         <v>128.72</v>
@@ -2742,13 +2739,13 @@
         <v>153</v>
       </c>
       <c r="D95">
-        <v>697</v>
+        <v>963</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F95">
-        <v>128.72</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2762,13 +2759,13 @@
         <v>154</v>
       </c>
       <c r="D96">
-        <v>908</v>
+        <v>856</v>
       </c>
       <c r="E96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F96">
-        <v>174.6</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2779,13 +2776,13 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D97">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97">
         <v>39.17</v>
@@ -2799,13 +2796,13 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D98">
-        <v>886</v>
+        <v>921</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F98">
         <v>39.17</v>
@@ -2822,13 +2819,13 @@
         <v>155</v>
       </c>
       <c r="D99">
-        <v>815</v>
+        <v>912</v>
       </c>
       <c r="E99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F99">
-        <v>39.17</v>
+        <v>180.58</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2842,13 +2839,13 @@
         <v>156</v>
       </c>
       <c r="D100">
-        <v>991</v>
+        <v>821</v>
       </c>
       <c r="E100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F100">
-        <v>180.58</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2859,13 +2856,13 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D101">
-        <v>795</v>
+        <v>877</v>
       </c>
       <c r="E101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F101">
         <v>39.83</v>
@@ -2879,13 +2876,13 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F102">
         <v>39.83</v>
@@ -2902,13 +2899,13 @@
         <v>157</v>
       </c>
       <c r="D103">
-        <v>623</v>
+        <v>819</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F103">
-        <v>39.83</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2919,13 +2916,13 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104">
-        <v>975</v>
+        <v>636</v>
       </c>
       <c r="E104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F104">
         <v>32.53</v>
@@ -2939,13 +2936,13 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D105">
-        <v>701</v>
+        <v>859</v>
       </c>
       <c r="E105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F105">
         <v>32.53</v>
@@ -2962,13 +2959,13 @@
         <v>158</v>
       </c>
       <c r="D106">
-        <v>790</v>
+        <v>879</v>
       </c>
       <c r="E106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F106">
-        <v>32.53</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2979,35 +2976,15 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D107">
-        <v>869</v>
+        <v>954</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F107">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108">
-        <v>686</v>
-      </c>
-      <c r="E108" t="s">
-        <v>160</v>
-      </c>
-      <c r="F108">
         <v>86.3</v>
       </c>
     </row>

--- a/result/ТИАН.xlsx
+++ b/result/ТИАН.xlsx
@@ -897,7 +897,7 @@
         <v>115</v>
       </c>
       <c r="D2">
-        <v>769</v>
+        <v>949</v>
       </c>
       <c r="F2" t="s">
         <v>161</v>
@@ -917,7 +917,7 @@
         <v>115</v>
       </c>
       <c r="D3">
-        <v>826</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
         <v>161</v>
@@ -937,7 +937,7 @@
         <v>115</v>
       </c>
       <c r="D4">
-        <v>739</v>
+        <v>621</v>
       </c>
       <c r="F4" t="s">
         <v>161</v>
@@ -957,7 +957,7 @@
         <v>116</v>
       </c>
       <c r="D5">
-        <v>872</v>
+        <v>520</v>
       </c>
       <c r="F5" t="s">
         <v>161</v>
@@ -977,7 +977,7 @@
         <v>116</v>
       </c>
       <c r="D6">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="F6" t="s">
         <v>161</v>
@@ -997,7 +997,7 @@
         <v>117</v>
       </c>
       <c r="D7">
-        <v>795</v>
+        <v>569</v>
       </c>
       <c r="F7" t="s">
         <v>161</v>
@@ -1017,7 +1017,7 @@
         <v>117</v>
       </c>
       <c r="D8">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="F8" t="s">
         <v>161</v>
@@ -1037,7 +1037,7 @@
         <v>117</v>
       </c>
       <c r="D9">
-        <v>920</v>
+        <v>881</v>
       </c>
       <c r="F9" t="s">
         <v>161</v>
@@ -1057,7 +1057,7 @@
         <v>118</v>
       </c>
       <c r="D10">
-        <v>889</v>
+        <v>822</v>
       </c>
       <c r="F10" t="s">
         <v>161</v>
@@ -1077,7 +1077,7 @@
         <v>118</v>
       </c>
       <c r="D11">
-        <v>693</v>
+        <v>756</v>
       </c>
       <c r="F11" t="s">
         <v>161</v>
@@ -1097,7 +1097,7 @@
         <v>119</v>
       </c>
       <c r="D12">
-        <v>765</v>
+        <v>619</v>
       </c>
       <c r="F12" t="s">
         <v>161</v>
@@ -1117,7 +1117,7 @@
         <v>119</v>
       </c>
       <c r="D13">
-        <v>992</v>
+        <v>885</v>
       </c>
       <c r="F13" t="s">
         <v>161</v>
@@ -1137,7 +1137,7 @@
         <v>119</v>
       </c>
       <c r="D14">
-        <v>675</v>
+        <v>767</v>
       </c>
       <c r="F14" t="s">
         <v>161</v>
@@ -1157,7 +1157,7 @@
         <v>120</v>
       </c>
       <c r="D15">
-        <v>938</v>
+        <v>662</v>
       </c>
       <c r="F15" t="s">
         <v>161</v>
@@ -1177,7 +1177,7 @@
         <v>120</v>
       </c>
       <c r="D16">
-        <v>797</v>
+        <v>975</v>
       </c>
       <c r="F16" t="s">
         <v>161</v>
@@ -1197,7 +1197,7 @@
         <v>121</v>
       </c>
       <c r="D17">
-        <v>660</v>
+        <v>967</v>
       </c>
       <c r="F17" t="s">
         <v>161</v>
@@ -1214,7 +1214,7 @@
         <v>121</v>
       </c>
       <c r="D18">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F18" t="s">
         <v>161</v>
@@ -1231,7 +1231,7 @@
         <v>121</v>
       </c>
       <c r="D19">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="F19" t="s">
         <v>161</v>
@@ -1248,7 +1248,7 @@
         <v>122</v>
       </c>
       <c r="D20">
-        <v>595</v>
+        <v>824</v>
       </c>
       <c r="F20" t="s">
         <v>161</v>
@@ -1268,7 +1268,7 @@
         <v>122</v>
       </c>
       <c r="D21">
-        <v>852</v>
+        <v>757</v>
       </c>
       <c r="F21" t="s">
         <v>161</v>
@@ -1288,7 +1288,7 @@
         <v>123</v>
       </c>
       <c r="D22">
-        <v>768</v>
+        <v>654</v>
       </c>
       <c r="F22" t="s">
         <v>161</v>
@@ -1308,7 +1308,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="F23" t="s">
         <v>161</v>
@@ -1328,7 +1328,7 @@
         <v>123</v>
       </c>
       <c r="D24">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="F24" t="s">
         <v>161</v>
@@ -1348,7 +1348,7 @@
         <v>124</v>
       </c>
       <c r="D25">
-        <v>621</v>
+        <v>805</v>
       </c>
       <c r="F25" t="s">
         <v>161</v>
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="D26">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -1388,7 +1388,7 @@
         <v>125</v>
       </c>
       <c r="D27">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="F27" t="s">
         <v>161</v>
@@ -1408,7 +1408,7 @@
         <v>126</v>
       </c>
       <c r="D28">
-        <v>633</v>
+        <v>880</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -1428,7 +1428,7 @@
         <v>126</v>
       </c>
       <c r="D29">
-        <v>503</v>
+        <v>763</v>
       </c>
       <c r="F29" t="s">
         <v>161</v>
@@ -1448,7 +1448,7 @@
         <v>126</v>
       </c>
       <c r="D30">
-        <v>921</v>
+        <v>879</v>
       </c>
       <c r="F30" t="s">
         <v>161</v>
@@ -1468,7 +1468,7 @@
         <v>127</v>
       </c>
       <c r="D31">
-        <v>769</v>
+        <v>641</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -1488,7 +1488,7 @@
         <v>128</v>
       </c>
       <c r="D32">
-        <v>928</v>
+        <v>683</v>
       </c>
       <c r="F32" t="s">
         <v>161</v>
@@ -1508,7 +1508,7 @@
         <v>128</v>
       </c>
       <c r="D33">
-        <v>723</v>
+        <v>536</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -1528,7 +1528,7 @@
         <v>128</v>
       </c>
       <c r="D34">
-        <v>786</v>
+        <v>923</v>
       </c>
       <c r="F34" t="s">
         <v>161</v>
@@ -1548,7 +1548,7 @@
         <v>129</v>
       </c>
       <c r="D35">
-        <v>666</v>
+        <v>780</v>
       </c>
       <c r="F35" t="s">
         <v>161</v>
@@ -1568,7 +1568,7 @@
         <v>130</v>
       </c>
       <c r="D36">
-        <v>779</v>
+        <v>752</v>
       </c>
       <c r="F36" t="s">
         <v>161</v>
@@ -1588,7 +1588,7 @@
         <v>130</v>
       </c>
       <c r="D37">
-        <v>647</v>
+        <v>588</v>
       </c>
       <c r="F37" t="s">
         <v>161</v>
@@ -1608,7 +1608,7 @@
         <v>130</v>
       </c>
       <c r="D38">
-        <v>756</v>
+        <v>696</v>
       </c>
       <c r="F38" t="s">
         <v>161</v>
@@ -1628,7 +1628,7 @@
         <v>131</v>
       </c>
       <c r="D39">
-        <v>761</v>
+        <v>676</v>
       </c>
       <c r="F39" t="s">
         <v>161</v>
@@ -1648,7 +1648,7 @@
         <v>132</v>
       </c>
       <c r="D40">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="F40" t="s">
         <v>161</v>
@@ -1668,7 +1668,7 @@
         <v>132</v>
       </c>
       <c r="D41">
-        <v>568</v>
+        <v>846</v>
       </c>
       <c r="F41" t="s">
         <v>161</v>
@@ -1688,7 +1688,7 @@
         <v>132</v>
       </c>
       <c r="D42">
-        <v>813</v>
+        <v>981</v>
       </c>
       <c r="F42" t="s">
         <v>161</v>
@@ -1708,7 +1708,7 @@
         <v>133</v>
       </c>
       <c r="D43">
-        <v>892</v>
+        <v>750</v>
       </c>
       <c r="F43" t="s">
         <v>161</v>
@@ -1728,7 +1728,7 @@
         <v>134</v>
       </c>
       <c r="D44">
-        <v>912</v>
+        <v>975</v>
       </c>
       <c r="F44" t="s">
         <v>161</v>
@@ -1748,7 +1748,7 @@
         <v>134</v>
       </c>
       <c r="D45">
-        <v>695</v>
+        <v>915</v>
       </c>
       <c r="F45" t="s">
         <v>161</v>
@@ -1768,7 +1768,7 @@
         <v>134</v>
       </c>
       <c r="D46">
-        <v>930</v>
+        <v>512</v>
       </c>
       <c r="F46" t="s">
         <v>161</v>
@@ -1788,7 +1788,7 @@
         <v>135</v>
       </c>
       <c r="D47">
-        <v>525</v>
+        <v>749</v>
       </c>
       <c r="F47" t="s">
         <v>161</v>
@@ -1808,7 +1808,7 @@
         <v>136</v>
       </c>
       <c r="D48">
-        <v>915</v>
+        <v>766</v>
       </c>
       <c r="F48" t="s">
         <v>161</v>
@@ -1828,7 +1828,7 @@
         <v>136</v>
       </c>
       <c r="D49">
-        <v>719</v>
+        <v>994</v>
       </c>
       <c r="F49" t="s">
         <v>161</v>
@@ -1848,7 +1848,7 @@
         <v>136</v>
       </c>
       <c r="D50">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="F50" t="s">
         <v>161</v>
@@ -1868,7 +1868,7 @@
         <v>137</v>
       </c>
       <c r="D51">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="F51" t="s">
         <v>161</v>
@@ -1888,7 +1888,7 @@
         <v>137</v>
       </c>
       <c r="D52">
-        <v>898</v>
+        <v>829</v>
       </c>
       <c r="F52" t="s">
         <v>161</v>
@@ -1908,7 +1908,7 @@
         <v>137</v>
       </c>
       <c r="D53">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="F53" t="s">
         <v>161</v>
@@ -1928,7 +1928,7 @@
         <v>138</v>
       </c>
       <c r="D54">
-        <v>810</v>
+        <v>542</v>
       </c>
       <c r="F54" t="s">
         <v>161</v>
@@ -1948,7 +1948,7 @@
         <v>138</v>
       </c>
       <c r="D55">
-        <v>728</v>
+        <v>552</v>
       </c>
       <c r="F55" t="s">
         <v>161</v>
@@ -1968,7 +1968,7 @@
         <v>139</v>
       </c>
       <c r="D56">
-        <v>628</v>
+        <v>799</v>
       </c>
       <c r="F56" t="s">
         <v>161</v>
@@ -1988,7 +1988,7 @@
         <v>139</v>
       </c>
       <c r="D57">
-        <v>515</v>
+        <v>986</v>
       </c>
       <c r="F57" t="s">
         <v>161</v>
@@ -2008,7 +2008,7 @@
         <v>139</v>
       </c>
       <c r="D58">
-        <v>766</v>
+        <v>885</v>
       </c>
       <c r="F58" t="s">
         <v>161</v>
@@ -2028,7 +2028,7 @@
         <v>140</v>
       </c>
       <c r="D59">
-        <v>886</v>
+        <v>593</v>
       </c>
       <c r="F59" t="s">
         <v>161</v>
@@ -2048,7 +2048,7 @@
         <v>140</v>
       </c>
       <c r="D60">
-        <v>889</v>
+        <v>774</v>
       </c>
       <c r="F60" t="s">
         <v>161</v>
@@ -2068,7 +2068,7 @@
         <v>141</v>
       </c>
       <c r="D61">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="F61" t="s">
         <v>161</v>
@@ -2088,7 +2088,7 @@
         <v>141</v>
       </c>
       <c r="D62">
-        <v>692</v>
+        <v>885</v>
       </c>
       <c r="F62" t="s">
         <v>161</v>
@@ -2108,7 +2108,7 @@
         <v>141</v>
       </c>
       <c r="D63">
-        <v>816</v>
+        <v>735</v>
       </c>
       <c r="F63" t="s">
         <v>161</v>
@@ -2128,7 +2128,7 @@
         <v>142</v>
       </c>
       <c r="D64">
-        <v>770</v>
+        <v>531</v>
       </c>
       <c r="F64" t="s">
         <v>161</v>
@@ -2148,7 +2148,7 @@
         <v>142</v>
       </c>
       <c r="D65">
-        <v>673</v>
+        <v>507</v>
       </c>
       <c r="F65" t="s">
         <v>161</v>
@@ -2168,7 +2168,7 @@
         <v>143</v>
       </c>
       <c r="D66">
-        <v>581</v>
+        <v>750</v>
       </c>
       <c r="F66" t="s">
         <v>161</v>
@@ -2188,7 +2188,7 @@
         <v>143</v>
       </c>
       <c r="D67">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="F67" t="s">
         <v>161</v>
@@ -2208,7 +2208,7 @@
         <v>143</v>
       </c>
       <c r="D68">
-        <v>667</v>
+        <v>769</v>
       </c>
       <c r="F68" t="s">
         <v>161</v>
@@ -2228,7 +2228,7 @@
         <v>144</v>
       </c>
       <c r="D69">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="F69" t="s">
         <v>161</v>
@@ -2248,7 +2248,7 @@
         <v>144</v>
       </c>
       <c r="D70">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F70" t="s">
         <v>161</v>
@@ -2268,7 +2268,7 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>584</v>
+        <v>521</v>
       </c>
       <c r="F71" t="s">
         <v>161</v>
@@ -2288,7 +2288,7 @@
         <v>145</v>
       </c>
       <c r="D72">
-        <v>716</v>
+        <v>870</v>
       </c>
       <c r="F72" t="s">
         <v>161</v>
@@ -2308,7 +2308,7 @@
         <v>145</v>
       </c>
       <c r="D73">
-        <v>751</v>
+        <v>902</v>
       </c>
       <c r="F73" t="s">
         <v>161</v>
@@ -2328,7 +2328,7 @@
         <v>146</v>
       </c>
       <c r="D74">
-        <v>579</v>
+        <v>815</v>
       </c>
       <c r="F74" t="s">
         <v>161</v>
@@ -2348,7 +2348,7 @@
         <v>146</v>
       </c>
       <c r="D75">
-        <v>812</v>
+        <v>700</v>
       </c>
       <c r="F75" t="s">
         <v>161</v>
@@ -2368,7 +2368,7 @@
         <v>147</v>
       </c>
       <c r="D76">
-        <v>689</v>
+        <v>567</v>
       </c>
       <c r="F76" t="s">
         <v>161</v>
@@ -2388,7 +2388,7 @@
         <v>147</v>
       </c>
       <c r="D77">
-        <v>695</v>
+        <v>532</v>
       </c>
       <c r="F77" t="s">
         <v>161</v>
@@ -2408,7 +2408,7 @@
         <v>147</v>
       </c>
       <c r="D78">
-        <v>888</v>
+        <v>941</v>
       </c>
       <c r="F78" t="s">
         <v>161</v>
@@ -2428,7 +2428,7 @@
         <v>148</v>
       </c>
       <c r="D79">
-        <v>612</v>
+        <v>503</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -2448,7 +2448,7 @@
         <v>148</v>
       </c>
       <c r="D80">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F80" t="s">
         <v>161</v>
@@ -2468,7 +2468,7 @@
         <v>149</v>
       </c>
       <c r="D81">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="F81" t="s">
         <v>161</v>
@@ -2488,7 +2488,7 @@
         <v>149</v>
       </c>
       <c r="D82">
-        <v>799</v>
+        <v>564</v>
       </c>
       <c r="F82" t="s">
         <v>161</v>
@@ -2508,7 +2508,7 @@
         <v>149</v>
       </c>
       <c r="D83">
-        <v>915</v>
+        <v>581</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2528,7 +2528,7 @@
         <v>150</v>
       </c>
       <c r="D84">
-        <v>922</v>
+        <v>967</v>
       </c>
       <c r="F84" t="s">
         <v>161</v>
@@ -2548,7 +2548,7 @@
         <v>150</v>
       </c>
       <c r="D85">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="F85" t="s">
         <v>161</v>
@@ -2568,7 +2568,7 @@
         <v>151</v>
       </c>
       <c r="D86">
-        <v>851</v>
+        <v>555</v>
       </c>
       <c r="F86" t="s">
         <v>161</v>
@@ -2588,7 +2588,7 @@
         <v>151</v>
       </c>
       <c r="D87">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="F87" t="s">
         <v>161</v>
@@ -2608,7 +2608,7 @@
         <v>151</v>
       </c>
       <c r="D88">
-        <v>588</v>
+        <v>844</v>
       </c>
       <c r="F88" t="s">
         <v>161</v>
@@ -2628,7 +2628,7 @@
         <v>152</v>
       </c>
       <c r="D89">
-        <v>801</v>
+        <v>638</v>
       </c>
       <c r="F89" t="s">
         <v>161</v>
@@ -2648,7 +2648,7 @@
         <v>152</v>
       </c>
       <c r="D90">
-        <v>600</v>
+        <v>698</v>
       </c>
       <c r="F90" t="s">
         <v>161</v>
@@ -2668,7 +2668,7 @@
         <v>153</v>
       </c>
       <c r="D91">
-        <v>978</v>
+        <v>847</v>
       </c>
       <c r="F91" t="s">
         <v>161</v>
@@ -2688,7 +2688,7 @@
         <v>153</v>
       </c>
       <c r="D92">
-        <v>792</v>
+        <v>962</v>
       </c>
       <c r="F92" t="s">
         <v>161</v>
@@ -2708,7 +2708,7 @@
         <v>153</v>
       </c>
       <c r="D93">
-        <v>753</v>
+        <v>929</v>
       </c>
       <c r="F93" t="s">
         <v>161</v>
@@ -2728,7 +2728,7 @@
         <v>154</v>
       </c>
       <c r="D94">
-        <v>848</v>
+        <v>629</v>
       </c>
       <c r="F94" t="s">
         <v>161</v>
@@ -2748,7 +2748,7 @@
         <v>154</v>
       </c>
       <c r="D95">
-        <v>746</v>
+        <v>624</v>
       </c>
       <c r="F95" t="s">
         <v>161</v>
@@ -2768,7 +2768,7 @@
         <v>155</v>
       </c>
       <c r="D96">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="F96" t="s">
         <v>161</v>
@@ -2788,7 +2788,7 @@
         <v>156</v>
       </c>
       <c r="D97">
-        <v>765</v>
+        <v>827</v>
       </c>
       <c r="F97" t="s">
         <v>161</v>
@@ -2808,7 +2808,7 @@
         <v>156</v>
       </c>
       <c r="D98">
-        <v>514</v>
+        <v>675</v>
       </c>
       <c r="F98" t="s">
         <v>161</v>
@@ -2828,7 +2828,7 @@
         <v>156</v>
       </c>
       <c r="D99">
-        <v>530</v>
+        <v>727</v>
       </c>
       <c r="F99" t="s">
         <v>161</v>
@@ -2848,7 +2848,7 @@
         <v>157</v>
       </c>
       <c r="D100">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="F100" t="s">
         <v>161</v>
@@ -2868,7 +2868,7 @@
         <v>158</v>
       </c>
       <c r="D101">
-        <v>819</v>
+        <v>585</v>
       </c>
       <c r="F101" t="s">
         <v>161</v>
@@ -2888,7 +2888,7 @@
         <v>158</v>
       </c>
       <c r="D102">
-        <v>937</v>
+        <v>793</v>
       </c>
       <c r="F102" t="s">
         <v>161</v>
@@ -2908,7 +2908,7 @@
         <v>158</v>
       </c>
       <c r="D103">
-        <v>911</v>
+        <v>888</v>
       </c>
       <c r="F103" t="s">
         <v>161</v>
@@ -2928,7 +2928,7 @@
         <v>159</v>
       </c>
       <c r="D104">
-        <v>934</v>
+        <v>863</v>
       </c>
       <c r="F104" t="s">
         <v>161</v>
@@ -2948,7 +2948,7 @@
         <v>159</v>
       </c>
       <c r="D105">
-        <v>871</v>
+        <v>640</v>
       </c>
       <c r="F105" t="s">
         <v>161</v>
@@ -2968,7 +2968,7 @@
         <v>159</v>
       </c>
       <c r="D106">
-        <v>811</v>
+        <v>553</v>
       </c>
       <c r="F106" t="s">
         <v>161</v>
@@ -2988,7 +2988,7 @@
         <v>160</v>
       </c>
       <c r="D107">
-        <v>766</v>
+        <v>881</v>
       </c>
       <c r="F107" t="s">
         <v>161</v>
@@ -3008,7 +3008,7 @@
         <v>160</v>
       </c>
       <c r="D108">
-        <v>839</v>
+        <v>936</v>
       </c>
       <c r="F108" t="s">
         <v>161</v>
